--- a/TimesheetManagementTool/src/test/resources/TestData/LoginData.xlsx
+++ b/TimesheetManagementTool/src/test/resources/TestData/LoginData.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMAN SINGH\git\GurugramProject\TimesheetManagementTool\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A847E43-3BB4-4100-9756-654F5FE637F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07720A3-D981-41DE-A022-5E4B24AC79DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5457CB39-D67F-417C-9AE2-7AADC2087ED3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{5457CB39-D67F-417C-9AE2-7AADC2087ED3}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
+    <sheet name="InvalidCredentials" sheetId="2" r:id="rId2"/>
+    <sheet name="UserCredentials" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Username</t>
   </si>
@@ -37,6 +39,54 @@
   </si>
   <si>
     <t>manager</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Aman@123</t>
+  </si>
+  <si>
+    <t>Aman@1234</t>
+  </si>
+  <si>
+    <t>Amknkan@123</t>
+  </si>
+  <si>
+    <t>Aman</t>
+  </si>
+  <si>
+    <t>Aman@jbgvgy</t>
+  </si>
+  <si>
+    <t>Amajhgctfc</t>
+  </si>
+  <si>
+    <t>Aman@1vgfc3</t>
+  </si>
+  <si>
+    <t>Aman123</t>
+  </si>
+  <si>
+    <t>Amanjhugviytf123</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>Zaffar@</t>
+  </si>
+  <si>
+    <t>Zaffar123</t>
+  </si>
+  <si>
+    <t>Zaffar</t>
+  </si>
+  <si>
+    <t>Khan</t>
   </si>
 </sst>
 </file>
@@ -413,7 +463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E1D296-C9BB-4FE1-AD14-09C61DB722D9}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="400" workbookViewId="0">
+    <sheetView zoomScale="400" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -438,4 +488,127 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC4A351-2DB2-4607-9689-EC3FF8B7CFAB}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView zoomScale="156" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5F9549-E149-4B61-A01D-A3C7103D56D8}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>